--- a/outlier_detection/LOC/LOF_df.xlsx
+++ b/outlier_detection/LOC/LOF_df.xlsx
@@ -520,7 +520,7 @@
         <v>23801</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>23801</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         <v>23801</v>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>23801</v>
       </c>
       <c r="B25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>23895</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>23895</v>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>24256</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>24256</v>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>24256</v>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>24256</v>
       </c>
       <c r="B60" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>24256</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>24256</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>25170</v>
       </c>
       <c r="B90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>25170</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>25389</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>25389</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>25389</v>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>25389</v>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>25393</v>
       </c>
       <c r="B102" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>25393</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>25400</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>25400</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>25400</v>
       </c>
       <c r="B119" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>25400</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>25400</v>
       </c>
       <c r="B126" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>25400</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>25400</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>25400</v>
       </c>
       <c r="B133" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>25400</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>25400</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>25400</v>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>25400</v>
       </c>
       <c r="B150" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>25400</v>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>25400</v>
       </c>
       <c r="B153" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>25400</v>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>25400</v>
       </c>
       <c r="B155" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>25400</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>25400</v>
       </c>
       <c r="B162" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>25400</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>25400</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>25961</v>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>25961</v>
       </c>
       <c r="B175" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>26527</v>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>26527</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>26527</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>26527</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>26527</v>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>26527</v>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>26715</v>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>26715</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>26715</v>
       </c>
       <c r="B208" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>26715</v>
       </c>
       <c r="B209" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>26715</v>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>26715</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>26715</v>
       </c>
       <c r="B227" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>26715</v>
       </c>
       <c r="B231" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>27002</v>
       </c>
       <c r="B244" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>27002</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>27336</v>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>27336</v>
       </c>
       <c r="B254" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>27402</v>
       </c>
       <c r="B257" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>27402</v>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>27557</v>
       </c>
       <c r="B264" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>27557</v>
       </c>
       <c r="B265" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>27557</v>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>27557</v>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>27557</v>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>27557</v>
       </c>
       <c r="B272" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>27791</v>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>27791</v>
       </c>
       <c r="B280" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>27972</v>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>27972</v>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>27972</v>
       </c>
       <c r="B287" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>28077</v>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         <v>28077</v>
       </c>
       <c r="B295" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>28474</v>
       </c>
       <c r="B307" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>28474</v>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>28624</v>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>28624</v>
       </c>
       <c r="B319" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
